--- a/doc/50_単体テスト(UT)/02_エビデンス/BK_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/BK_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50194\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\BK_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E885ACF2-05D5-4BE4-8B10-5C42E61845C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756BA64A-E7C5-4360-A2D9-1C918FC84DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="360" windowWidth="13764" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ケース一覧" sheetId="5" r:id="rId1"/>
+    <sheet name="ケース一覧 " sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -391,7 +391,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>B-画面項目確認.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>EB文</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -892,11 +899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5730690-B7DF-49B5-A931-849790FE914E}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -971,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="11">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -1003,9 +1010,15 @@
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="11">
+        <v>45072</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="36">
@@ -1328,5 +1341,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>